--- a/docs/DataProviderTemplate.xlsx
+++ b/docs/DataProviderTemplate.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daanm\Documents\temp\SBTi\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/GitHub/MichaelTiemannOSC/ITR/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="11_BCCFA2BD0AFE4771E24C6D0DBC87A6ED4B30D22F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{35A3BBCA-F2EF-46A8-B156-4D9ACA454480}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4455F6B-D6AA-8A4D-9299-68DBDB6D7FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="12440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fundamental_data" sheetId="1" r:id="rId1"/>
     <sheet name="target_data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>company_name</t>
   </si>
@@ -199,13 +199,19 @@
   </si>
   <si>
     <t>Steel</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>USD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +223,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -274,9 +286,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:Q51" totalsRowShown="0" tableBorderDxfId="1">
-  <autoFilter ref="A1:Q51" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:R51" totalsRowShown="0" tableBorderDxfId="1">
+  <autoFilter ref="A1:R51" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="company_name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="company_id"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="isic"/>
@@ -289,6 +301,7 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="sector"/>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="ghg_s1s2"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ghg_s3"/>
+    <tableColumn id="14" xr3:uid="{6DCBAC65-5237-9448-A67A-5749F6FFEAEB}" name="currency"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="company_revenue"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="company_market_cap"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="company_enterprise_value"/>
@@ -587,26 +600,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:L2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="21.5703125" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" customWidth="1"/>
-    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="21.5" customWidth="1"/>
+    <col min="12" max="13" width="14.5" customWidth="1"/>
+    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -644,22 +657,25 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -696,23 +712,26 @@
       <c r="L2">
         <v>61888133</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2">
         <v>7370536918</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>7318942238</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>24392175674</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>21337139</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>990719858</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -749,23 +768,27 @@
       <c r="L3">
         <v>18413448.829999998</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3">
         <v>2795781568</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>3615211346</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>3620291185</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>43581896.049999997</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>463981837.19999999</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -778,25 +801,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="4" width="21.140625" customWidth="1"/>
-    <col min="6" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="4" width="21.1640625" customWidth="1"/>
+    <col min="6" max="7" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
     <col min="12" max="12" width="21" customWidth="1"/>
-    <col min="13" max="15" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -846,7 +869,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -887,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -932,7 +955,7 @@
       </c>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1161,6 +1184,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1169,20 +1198,37 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6280943-A9F4-43BE-9F92-E31CF54894DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="84fd47fe-9509-4b60-beed-e31c94bc7d6c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6280943-A9F4-43BE-9F92-E31CF54894DF}"/>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29F3819C-57C4-4F13-9AF5-6CCD1D9AA3D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEEFA7D1-1829-4AA1-B93C-54856ECD839E}"/>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29F3819C-57C4-4F13-9AF5-6CCD1D9AA3D5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEEFA7D1-1829-4AA1-B93C-54856ECD839E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>